--- a/RESOURCE/INI/TEXTS/RUSSIAN/Storyline/GoldBug/QUESTBOOK/goldbug crypto.xlsx
+++ b/RESOURCE/INI/TEXTS/RUSSIAN/Storyline/GoldBug/QUESTBOOK/goldbug crypto.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\Пираты Карибского Моря\RESOURCE\INI\TEXTS\RUSSIAN\Storyline\GoldBug\QUESTBOOK\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5024BB-8CC2-46BD-A979-B9C4E5BFC554}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="15195" windowHeight="8190"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="15195" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blad1" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t>X</t>
   </si>
@@ -418,12 +419,66 @@
       </rPr>
       <t>=</t>
     </r>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -623,7 +678,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,9 +694,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -679,7 +734,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -714,6 +769,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -749,9 +821,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -924,11 +1013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15"/>
@@ -944,54 +1033,66 @@
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="C1" s="15" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g"),"Makes the word  'through'","")</f>
-        <v/>
+        <v>Makes the word  'through'</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24"/>
+      <c r="J1" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="K1" s="20" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s",$B$7="i",$B$2="n",$J$4="m",$J$1="f"),"Makes the word  'from'","")</f>
-        <v/>
+        <v>Makes the word  'from'</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="19.5" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="C2" s="20" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s",$B$7="i",$B$2="n"),"Makes the word  'thirteen'","")</f>
-        <v/>
+        <v>Makes the word  'thirteen'</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="K2" s="16" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s",$B$4="a",$J$2="l"),"Makes the word  'glass'","")</f>
-        <v/>
+        <v>Makes the word  'glass'</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="19.5" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="C3" s="15" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g"),"Makes the word  'through'","")</f>
-        <v/>
+        <v>Makes the word  'through'</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="K3" s="19" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s",$B$7="i",$B$2="n",$J$4="m",$J$1="f",$J$8="y",$B$4="a",$J$2="l",$J$5="b",$J$3="p"),"Makes the word  'bishops'","")</f>
-        <v/>
+        <v>Makes the word  'bishops'</v>
       </c>
       <c r="P3" s="14"/>
       <c r="R3" s="2"/>
@@ -1010,18 +1111,22 @@
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C4" s="20" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s",$B$4="a"),"Makes the word  'a'","")</f>
-        <v/>
+        <v>Makes the word  'a'</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="K4" s="16" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s",$B$7="i",$B$2="n",$J$4="m"),"Makes the word  'minutes'","")</f>
-        <v/>
+        <v>Makes the word  'minutes'</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -1039,54 +1144,66 @@
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" s="23" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s",$B$7="i",$B$2="n",$J$4="m",$J$1="f",$J$8="y",$B$4="a",$J$2="l",$B$5="v"),"Makes the word  'seventh'","")</f>
-        <v/>
+        <v>Makes the word  'seventh'</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="K5" s="22" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s",$B$7="i",$B$2="n",$J$4="m",$J$1="f",$J$8="y",$B$4="a",$J$2="l",$J$5="b"),"Makes the word  'by'","")</f>
-        <v/>
+        <v>Makes the word  'by'</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="19.5" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="17" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h"),"Makes the word  'the'","")</f>
-        <v/>
+        <v>Makes the word  'the'</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="K6" s="17" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h"),"Makes the word  'the'","")</f>
-        <v/>
+        <v>Makes the word  'the'</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="19.5" thickBot="1">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="C7" s="20" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s",$B$7="i",$B$2="n"),"Makes the word  'thirteen'","")</f>
-        <v/>
+        <v>Makes the word  'thirteen'</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="K7" s="20" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s"),"Makes the word  'degrees'","")</f>
-        <v/>
+        <v>Makes the word  'degrees'</v>
       </c>
       <c r="T7" s="15"/>
     </row>
@@ -1094,54 +1211,66 @@
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="20" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s"),"Makes the word  'degrees'","")</f>
-        <v/>
+        <v>Makes the word  'degrees'</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="K8" s="20" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s",$B$7="i",$B$2="n",$J$4="m",$J$1="f",$J$8="y"),"Makes the word  'fifty'","")</f>
-        <v/>
+        <v>Makes the word  'fifty'</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="19.5" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C9" s="21" t="str">
         <f>IF(B9="E","Yes, the most frequent","")</f>
-        <v/>
+        <v>Yes, the most frequent</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="K9" s="15" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g"),"Makes the word  'through'","")</f>
-        <v/>
+        <v>Makes the word  'through'</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="19.5" thickBot="1">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="18" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r",$J$9="o",$B$1="u",$B$3="g",$B$8="d",$J$7="s",$B$7="i",$B$2="n",$J$4="m",$J$1="f",$J$8="y",$B$4="a",$J$2="l",$J$5="b",$B$10="c"),"Makes the word  'branch'","")</f>
-        <v/>
+        <v>Makes the word  'branch'</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="K10" s="20" t="str">
         <f>IF(AND($B$9="e",$J$6="t",$B$6="h",$J$10="r"),"Makes the word  'tree'","")</f>
-        <v/>
+        <v>Makes the word  'tree'</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="4" customFormat="1">
@@ -1188,55 +1317,55 @@
     <row r="13" spans="1:28" s="12" customFormat="1" ht="18.75">
       <c r="B13" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="C13" s="13" t="str">
         <f>IF(ISTEXT($B$3),$B$3,"")</f>
-        <v/>
+        <v>G</v>
       </c>
       <c r="D13" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="E13" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="F13" s="13" t="str">
         <f>IF(ISTEXT($B$8),$B$8,"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="G13" s="13" t="str">
         <f>IF(ISTEXT($B$3),$B$3,"")</f>
-        <v/>
+        <v>G</v>
       </c>
       <c r="H13" s="13" t="str">
         <f>IF(ISTEXT($J$2),$J$2,"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I13" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J13" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="K13" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="L13" s="13" t="str">
         <f>IF(ISTEXT($B$7),$B$7,"")</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="M13" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N13" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1283,55 +1412,55 @@
     <row r="15" spans="1:28" s="12" customFormat="1" ht="18.75">
       <c r="B15" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="C15" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="D15" s="13" t="str">
         <f>IF(ISTEXT($J$5),$J$5,"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="E15" s="13" t="str">
         <f>IF(ISTEXT($B$7),$B$7,"")</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="F15" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="G15" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="H15" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="I15" s="13" t="str">
         <f>IF(ISTEXT($J$3),$J$3,"")</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J15" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="K15" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="L15" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="M15" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="N15" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1378,55 +1507,55 @@
     <row r="17" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B17" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="C17" s="13" t="str">
         <f>IF(ISTEXT($J$2),$J$2,"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="D17" s="13" t="str">
         <f>IF(ISTEXT($B$7),$B$7,"")</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="E17" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F17" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="G17" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="H17" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="I17" s="13" t="str">
         <f>IF(ISTEXT($B$8),$B$8,"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="J17" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="K17" s="13" t="str">
         <f>IF(ISTEXT($B$5),$B$5,"")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="L17" s="13" t="str">
         <f>IF(ISTEXT($B$7),$B$7,"")</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="M17" s="13" t="str">
         <f>IF(ISTEXT($J$2),$J$2,"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N17" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -1473,55 +1602,55 @@
     <row r="19" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B19" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="C19" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="D19" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="E19" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="F19" s="13" t="str">
         <f>IF(ISTEXT($J$1),$J$1,"")</f>
-        <v/>
+        <v>F</v>
       </c>
       <c r="G19" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="H19" s="13" t="str">
         <f>IF(ISTEXT($J$10),$J$10,"")</f>
-        <v/>
+        <v>R</v>
       </c>
       <c r="I19" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="J19" s="13" t="str">
         <f>IF(ISTEXT($J$8),$J$8,"")</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="K19" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="L19" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M19" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="N19" s="13" t="str">
         <f>IF(ISTEXT($B$8),$B$8,"")</f>
-        <v/>
+        <v>D</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -1568,55 +1697,55 @@
     <row r="21" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B21" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="C21" s="13" t="str">
         <f>IF(ISTEXT($B$3),$B$3,"")</f>
-        <v/>
+        <v>G</v>
       </c>
       <c r="D21" s="13" t="str">
         <f>IF(ISTEXT($J$10),$J$10,"")</f>
-        <v/>
+        <v>R</v>
       </c>
       <c r="E21" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="F21" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="G21" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="H21" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="I21" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J21" s="13" t="str">
         <f>IF(ISTEXT($B$8),$B$8,"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="K21" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="L21" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="M21" s="13" t="str">
         <f>IF(ISTEXT($B$7),$B$7,"")</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="N21" s="13" t="str">
         <f>IF(ISTEXT($J$10),$J$10,"")</f>
-        <v/>
+        <v>R</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -1663,55 +1792,55 @@
     <row r="23" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B23" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="C23" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="D23" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="E23" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F23" s="13" t="str">
         <f>IF(ISTEXT($J$4),$J$4,"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="G23" s="13" t="str">
         <f>IF(ISTEXT($B$7),$B$7,"")</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="H23" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I23" s="13" t="str">
         <f>IF(ISTEXT($B$1),$B$1,"")</f>
-        <v/>
+        <v>U</v>
       </c>
       <c r="J23" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="K23" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="L23" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="M23" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N23" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -1758,55 +1887,55 @@
     <row r="25" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B25" s="13" t="str">
         <f>IF(ISTEXT($J$10),$J$10,"")</f>
-        <v/>
+        <v>R</v>
       </c>
       <c r="C25" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="D25" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="E25" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="F25" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="G25" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="H25" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="I25" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J25" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K25" s="13" t="str">
         <f>IF(ISTEXT($B$8),$B$8,"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="L25" s="13" t="str">
         <f>IF(ISTEXT($J$5),$J$5,"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M25" s="13" t="str">
         <f>IF(ISTEXT($J$8),$J$8,"")</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="N25" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
     </row>
     <row r="26" spans="2:14">
@@ -1853,55 +1982,55 @@
     <row r="27" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B27" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="C27" s="13" t="str">
         <f>IF(ISTEXT($J$10),$J$10,"")</f>
-        <v/>
+        <v>R</v>
       </c>
       <c r="D27" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="E27" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="F27" s="13" t="str">
         <f>IF(ISTEXT($J$4),$J$4,"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="G27" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="H27" s="13" t="str">
         <f>IF(ISTEXT($B$7),$B$7,"")</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="I27" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J27" s="13" t="str">
         <f>IF(ISTEXT($J$5),$J$5,"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K27" s="13" t="str">
         <f>IF(ISTEXT($J$10),$J$10,"")</f>
-        <v/>
+        <v>R</v>
       </c>
       <c r="L27" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M27" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N27" s="13" t="str">
         <f>IF(ISTEXT($B$10),$B$10,"")</f>
-        <v/>
+        <v>C</v>
       </c>
     </row>
     <row r="28" spans="2:14">
@@ -1948,55 +2077,55 @@
     <row r="29" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B29" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="C29" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="D29" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="E29" s="13" t="str">
         <f>IF(ISTEXT($B$5),$B$5,"")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="F29" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="G29" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H29" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="I29" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="J29" s="13" t="str">
         <f>IF(ISTEXT($J$2),$J$2,"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K29" s="13" t="str">
         <f>IF(ISTEXT($B$7),$B$7,"")</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="L29" s="13" t="str">
         <f>IF(ISTEXT($J$4),$J$4,"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M29" s="13" t="str">
         <f>IF(ISTEXT($J$5),$J$5,"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N29" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
     </row>
     <row r="30" spans="2:14">
@@ -2043,55 +2172,55 @@
     <row r="31" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B31" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="C31" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="D31" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="E31" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="F31" s="13" t="str">
         <f>IF(ISTEXT($B$7),$B$7,"")</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="G31" s="13" t="str">
         <f>IF(ISTEXT($B$8),$B$8,"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="H31" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="I31" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="J31" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="K31" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="L31" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="M31" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="N31" s="13" t="str">
         <f>IF(ISTEXT($J$1),$J$1,"")</f>
-        <v/>
+        <v>F</v>
       </c>
     </row>
     <row r="32" spans="2:14">
@@ -2138,55 +2267,55 @@
     <row r="33" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B33" s="13" t="str">
         <f>IF(ISTEXT($J$10),$J$10,"")</f>
-        <v/>
+        <v>R</v>
       </c>
       <c r="C33" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="D33" s="13" t="str">
         <f>IF(ISTEXT($J$4),$J$4,"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="E33" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="F33" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="G33" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="H33" s="13" t="str">
         <f>IF(ISTEXT($J$2),$J$2,"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I33" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="J33" s="13" t="str">
         <f>IF(ISTEXT($J$1),$J$1,"")</f>
-        <v/>
+        <v>F</v>
       </c>
       <c r="K33" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="L33" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="M33" s="13" t="str">
         <f>IF(ISTEXT($J$8),$J$8,"")</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="N33" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
     </row>
     <row r="34" spans="2:14">
@@ -2233,55 +2362,55 @@
     <row r="35" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B35" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="C35" s="13" t="str">
         <f>IF(ISTEXT($J$1),$J$1,"")</f>
-        <v/>
+        <v>F</v>
       </c>
       <c r="D35" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="E35" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="F35" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="G35" s="13" t="str">
         <f>IF(ISTEXT($B$8),$B$8,"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="H35" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="I35" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J35" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="K35" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="L35" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="M35" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="N35" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
     </row>
     <row r="36" spans="2:14">
@@ -2328,55 +2457,55 @@
     <row r="37" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B37" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="C37" s="13" t="str">
         <f>IF(ISTEXT($B$8),$B$8,"")</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="D37" s="13" t="str">
         <f>IF(ISTEXT($B$4),$B$4,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="E37" s="13" t="str">
         <f>IF(ISTEXT($J$5),$J$5,"")</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="F37" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="G37" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="H37" s="13" t="str">
         <f>IF(ISTEXT($J$2),$J$2,"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I37" s="13" t="str">
         <f>IF(ISTEXT($B$7),$B$7,"")</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="J37" s="13" t="str">
         <f>IF(ISTEXT($B$2),$B$2,"")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K37" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="L37" s="13" t="str">
         <f>IF(ISTEXT($J$1),$J$1,"")</f>
-        <v/>
+        <v>F</v>
       </c>
       <c r="M37" s="13" t="str">
         <f>IF(ISTEXT($J$10),$J$10,"")</f>
-        <v/>
+        <v>R</v>
       </c>
       <c r="N37" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
     </row>
     <row r="38" spans="2:14">
@@ -2423,55 +2552,55 @@
     <row r="39" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B39" s="13" t="str">
         <f>IF(ISTEXT($J$4),$J$4,"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="C39" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="D39" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="E39" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="F39" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="G39" s="13" t="str">
         <f>IF(ISTEXT($J$10),$J$10,"")</f>
-        <v/>
+        <v>R</v>
       </c>
       <c r="H39" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="I39" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="J39" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="K39" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="L39" s="13" t="str">
         <f>IF(ISTEXT($J$10),$J$10,"")</f>
-        <v/>
+        <v>R</v>
       </c>
       <c r="M39" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="N39" s="13" t="str">
         <f>IF(ISTEXT($B$1),$B$1,"")</f>
-        <v/>
+        <v>U</v>
       </c>
     </row>
     <row r="40" spans="2:14">
@@ -2518,55 +2647,55 @@
     <row r="41" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B41" s="13" t="str">
         <f>IF(ISTEXT($B$3),$B$3,"")</f>
-        <v/>
+        <v>G</v>
       </c>
       <c r="C41" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="D41" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="E41" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="F41" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="G41" s="13" t="str">
         <f>IF(ISTEXT($J$7),$J$7,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="H41" s="13" t="str">
         <f>IF(ISTEXT($B$6),$B$6,"")</f>
-        <v/>
+        <v>H</v>
       </c>
       <c r="I41" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="J41" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="K41" s="13" t="str">
         <f>IF(ISTEXT($J$1),$J$1,"")</f>
-        <v/>
+        <v>F</v>
       </c>
       <c r="L41" s="13" t="str">
         <f>IF(ISTEXT($B$7),$B$7,"")</f>
-        <v/>
+        <v>I</v>
       </c>
       <c r="M41" s="13" t="str">
         <f>IF(ISTEXT($J$1),$J$1,"")</f>
-        <v/>
+        <v>F</v>
       </c>
       <c r="N41" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
     </row>
     <row r="42" spans="2:14">
@@ -2599,35 +2728,35 @@
     <row r="43" spans="2:14" s="12" customFormat="1" ht="18.75">
       <c r="B43" s="13" t="str">
         <f>IF(ISTEXT($J$8),$J$8,"")</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C43" s="13" t="str">
         <f>IF(ISTEXT($J$1),$J$1,"")</f>
-        <v/>
+        <v>F</v>
       </c>
       <c r="D43" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="E43" s="13" t="str">
         <f>IF(ISTEXT($B$9),$B$9,"")</f>
-        <v/>
+        <v>E</v>
       </c>
       <c r="F43" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="G43" s="13" t="str">
         <f>IF(ISTEXT($J$9),$J$9,"")</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="H43" s="13" t="str">
         <f>IF(ISTEXT($B$1),$B$1,"")</f>
-        <v/>
+        <v>U</v>
       </c>
       <c r="I43" s="13" t="str">
         <f>IF(ISTEXT($J$6),$J$6,"")</f>
-        <v/>
+        <v>T</v>
       </c>
     </row>
     <row r="44" spans="2:14">
